--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/31.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/31.xlsx
@@ -479,13 +479,13 @@
         <v>0.1571446081662148</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.82344437319832</v>
+        <v>-1.806592924485675</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03911055425667907</v>
+        <v>0.04130001485440832</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07133994150411149</v>
+        <v>-0.07597700183546333</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1717986451363192</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.850985772773279</v>
+        <v>-1.843253403839889</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01209251603955276</v>
+        <v>0.01715298751453447</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06329198173690108</v>
+        <v>-0.06284496030645169</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.200689226053339</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.950795899274076</v>
+        <v>-1.943693137989207</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01154767714326227</v>
+        <v>-0.01534263724471823</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.05661341860522226</v>
+        <v>-0.06274894514005235</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.2332364711724449</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.008974007026032</v>
+        <v>-1.993337701075031</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03408920497940942</v>
+        <v>-0.03613542983710032</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05552891943064609</v>
+        <v>-0.05975830880958104</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.2592373787947558</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.983993536561429</v>
+        <v>-1.95809698696823</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02612624224474924</v>
+        <v>-0.02322847304243467</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.06578995008240528</v>
+        <v>-0.073870964251163</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.271420965006057</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.864750569989053</v>
+        <v>-1.833986366263231</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01464557505430247</v>
+        <v>0.01775111478062873</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06532876247986417</v>
+        <v>-0.06743322604504319</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.2695560635325897</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.605900764462473</v>
+        <v>-1.568305317750206</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05646411506901915</v>
+        <v>0.05647513320286825</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06315032001598402</v>
+        <v>-0.06393890359575566</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2571881487497028</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.2178641265647</v>
+        <v>-1.170177643265774</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05851978404143784</v>
+        <v>0.05312404649361909</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0500466108311558</v>
+        <v>-0.04965782810819452</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2419813749938874</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7155434693362079</v>
+        <v>-0.6658107611795914</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0559053382809574</v>
+        <v>0.04844920970335605</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01623668010561702</v>
+        <v>-0.01896917730019501</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.234602964427413</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2061294949375746</v>
+        <v>-0.1576890564795459</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03611968964588731</v>
+        <v>-0.04541742059541047</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02284149261891516</v>
+        <v>0.01980520973392613</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2467110625471902</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3734621219842499</v>
+        <v>0.4254126230827791</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2279910465133199</v>
+        <v>-0.2298956096500937</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08625085292051336</v>
+        <v>0.08150833330803439</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2893061541779953</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9420481972099399</v>
+        <v>1.001753890519118</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5260709176096376</v>
+        <v>-0.5182008220031341</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1792171442818959</v>
+        <v>0.1732846662137136</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3725766782499374</v>
       </c>
       <c r="E14" t="n">
-        <v>1.520498650268821</v>
+        <v>1.586980495895199</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8454244441398948</v>
+        <v>-0.8320869931155535</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2958928856674307</v>
+        <v>0.2822681761534519</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4983960503116027</v>
       </c>
       <c r="E15" t="n">
-        <v>2.182661736274959</v>
+        <v>2.262497560126451</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.185913112421417</v>
+        <v>-1.170689199480197</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4152035350620228</v>
+        <v>0.4033653372507203</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6597338362022714</v>
       </c>
       <c r="E16" t="n">
-        <v>2.709797591960316</v>
+        <v>2.799551310295124</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.536041860811345</v>
+        <v>-1.520234773785683</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5337145827429942</v>
+        <v>0.5274185062577914</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8369766581012006</v>
       </c>
       <c r="E17" t="n">
-        <v>3.207719652754333</v>
+        <v>3.297748824435369</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.877363185208035</v>
+        <v>-1.861518321723462</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6656378473565687</v>
+        <v>0.652186279945933</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.015152428258828</v>
       </c>
       <c r="E18" t="n">
-        <v>3.634308740990124</v>
+        <v>3.715268414494225</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.204127193761376</v>
+        <v>-2.178181849575417</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8133800041392152</v>
+        <v>0.8041877324708192</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.183179719564246</v>
       </c>
       <c r="E19" t="n">
-        <v>3.992073843147043</v>
+        <v>4.066674479401089</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.565550316356198</v>
+        <v>-2.534833333204014</v>
       </c>
       <c r="G19" t="n">
-        <v>0.958406977937618</v>
+        <v>0.9483537178098704</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.333892243325105</v>
       </c>
       <c r="E20" t="n">
-        <v>4.297417812488163</v>
+        <v>4.376007013195585</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.900376450848841</v>
+        <v>-2.861798029195322</v>
       </c>
       <c r="G20" t="n">
-        <v>1.091087345748538</v>
+        <v>1.074034422588366</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.461210540773747</v>
       </c>
       <c r="E21" t="n">
-        <v>4.537120462413681</v>
+        <v>4.601700892941527</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.180954016325855</v>
+        <v>-3.137625991973811</v>
       </c>
       <c r="G21" t="n">
-        <v>1.208524912388782</v>
+        <v>1.186095139910248</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.562017461363169</v>
       </c>
       <c r="E22" t="n">
-        <v>4.705801795566991</v>
+        <v>4.769832893421503</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.415721329296535</v>
+        <v>-3.361632523221719</v>
       </c>
       <c r="G22" t="n">
-        <v>1.303910471139604</v>
+        <v>1.275179900118503</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.636749974907773</v>
       </c>
       <c r="E23" t="n">
-        <v>4.823410930291457</v>
+        <v>4.884305008037217</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.555690979658198</v>
+        <v>-3.501541573847212</v>
       </c>
       <c r="G23" t="n">
-        <v>1.385940477646189</v>
+        <v>1.35416260560625</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.688758416490456</v>
       </c>
       <c r="E24" t="n">
-        <v>4.892708696125841</v>
+        <v>4.953887671332556</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.675344765221234</v>
+        <v>-3.618710770227275</v>
       </c>
       <c r="G24" t="n">
-        <v>1.450188790139441</v>
+        <v>1.416641720607159</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.723556149237871</v>
       </c>
       <c r="E25" t="n">
-        <v>4.89724501923343</v>
+        <v>4.951657286237673</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.776189022284727</v>
+        <v>-3.720026446017597</v>
       </c>
       <c r="G25" t="n">
-        <v>1.48986823816831</v>
+        <v>1.456022105002981</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.743876147968591</v>
       </c>
       <c r="E26" t="n">
-        <v>4.896406067041776</v>
+        <v>4.944111438570157</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.789947523424016</v>
+        <v>-3.736637069804683</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518886854688609</v>
+        <v>1.482418405667194</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.753018854970834</v>
       </c>
       <c r="E27" t="n">
-        <v>4.866938855071906</v>
+        <v>4.906689133961233</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.72942097914308</v>
+        <v>-3.685542835108141</v>
       </c>
       <c r="G27" t="n">
-        <v>1.51226810428354</v>
+        <v>1.477328027828907</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.750634782533657</v>
       </c>
       <c r="E28" t="n">
-        <v>4.717800543328666</v>
+        <v>4.756545023999482</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.654306425645929</v>
+        <v>-3.614273610324328</v>
       </c>
       <c r="G28" t="n">
-        <v>1.468900729453464</v>
+        <v>1.431398149869353</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.73846591124571</v>
       </c>
       <c r="E29" t="n">
-        <v>4.595143529282188</v>
+        <v>4.630321282624138</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.562408106258349</v>
+        <v>-3.524090971778966</v>
       </c>
       <c r="G29" t="n">
-        <v>1.420861665871367</v>
+        <v>1.385680764491175</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.717750369513422</v>
       </c>
       <c r="E30" t="n">
-        <v>4.457656107074816</v>
+        <v>4.483882413673928</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.448778878882092</v>
+        <v>-3.401367061919833</v>
       </c>
       <c r="G30" t="n">
-        <v>1.366743740442806</v>
+        <v>1.332540304936942</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.690628304066567</v>
       </c>
       <c r="E31" t="n">
-        <v>4.309647941060669</v>
+        <v>4.331290703978554</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.330809293778848</v>
+        <v>-3.281133250310598</v>
       </c>
       <c r="G31" t="n">
-        <v>1.289837166176055</v>
+        <v>1.263264575370256</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.657801882636217</v>
       </c>
       <c r="E32" t="n">
-        <v>4.166023418299346</v>
+        <v>4.191689374091275</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.19641324512571</v>
+        <v>-3.143805591044038</v>
       </c>
       <c r="G32" t="n">
-        <v>1.223851136572887</v>
+        <v>1.194886036702712</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.618536339741667</v>
       </c>
       <c r="E33" t="n">
-        <v>3.964918865266363</v>
+        <v>3.988319807542741</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.082713186888994</v>
+        <v>-3.023608768884154</v>
       </c>
       <c r="G33" t="n">
-        <v>1.150678135661861</v>
+        <v>1.123954439020418</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.573477181055875</v>
       </c>
       <c r="E34" t="n">
-        <v>3.706084012921436</v>
+        <v>3.731546920246717</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.000537583613688</v>
+        <v>-2.94401298294866</v>
       </c>
       <c r="G34" t="n">
-        <v>1.090397925373408</v>
+        <v>1.064579289726713</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.520288242686551</v>
       </c>
       <c r="E35" t="n">
-        <v>3.465588057358783</v>
+        <v>3.490737734878925</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.917902366754963</v>
+        <v>-2.855011645753833</v>
       </c>
       <c r="G35" t="n">
-        <v>1.001804259130999</v>
+        <v>0.9710306112904494</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.461644110990709</v>
       </c>
       <c r="E36" t="n">
-        <v>3.215446512620798</v>
+        <v>3.234215116623188</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.839298999875449</v>
+        <v>-2.785717814967253</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9281149799481863</v>
+        <v>0.8985297165442185</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.396455528871799</v>
       </c>
       <c r="E37" t="n">
-        <v>2.960853641807776</v>
+        <v>2.98460086829084</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.739364525864069</v>
+        <v>-2.686958346229923</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8662513064237053</v>
+        <v>0.8428377719943576</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.328802457101568</v>
       </c>
       <c r="E38" t="n">
-        <v>2.68592601796667</v>
+        <v>2.701090118181281</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.640328816770951</v>
+        <v>-2.595539315664779</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8029537014797195</v>
+        <v>0.7770815491829001</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.259477449952376</v>
       </c>
       <c r="E39" t="n">
-        <v>2.434561460371436</v>
+        <v>2.44692223253101</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.536396334191466</v>
+        <v>-2.484419861777436</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7333253916298622</v>
+        <v>0.7075335143082292</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.190504980397143</v>
       </c>
       <c r="E40" t="n">
-        <v>2.201556261807052</v>
+        <v>2.21223912958332</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.444339038872635</v>
+        <v>-2.389203510082154</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6728437068938833</v>
+        <v>0.6527120023324475</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.122270449468742</v>
       </c>
       <c r="E41" t="n">
-        <v>1.998954816589713</v>
+        <v>2.010841808993776</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.344215682566698</v>
+        <v>-2.292711415889058</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6071000762353962</v>
+        <v>0.5877239008521847</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.054049402298904</v>
       </c>
       <c r="E42" t="n">
-        <v>1.758164519451376</v>
+        <v>1.760824611766374</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.244380371759959</v>
+        <v>-2.194416282792512</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5348085260322981</v>
+        <v>0.5172330285238547</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9865946814124216</v>
       </c>
       <c r="E43" t="n">
-        <v>1.540919974348576</v>
+        <v>1.543787837187586</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.163617450646021</v>
+        <v>-2.112980468504218</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4802309870203181</v>
+        <v>0.4635479583536521</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9190222699352133</v>
       </c>
       <c r="E44" t="n">
-        <v>1.320368415071924</v>
+        <v>1.315805333639273</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.074917538112924</v>
+        <v>-2.024358469917625</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4236308334374667</v>
+        <v>0.4140639452182011</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8528382526940236</v>
       </c>
       <c r="E45" t="n">
-        <v>1.108121380679254</v>
+        <v>1.10484899492607</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.992790729430379</v>
+        <v>-1.944844532976439</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3622802901465298</v>
+        <v>0.3544747293239996</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.787877770144877</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9126407979666792</v>
+        <v>0.9060551019631571</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.925086657956312</v>
+        <v>-1.877742523816269</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2944416400375914</v>
+        <v>0.2855625981743343</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7251660513189527</v>
       </c>
       <c r="E47" t="n">
-        <v>0.755242033874853</v>
+        <v>0.7460702244550339</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.871153679774504</v>
+        <v>-1.828706319120828</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2521870967262745</v>
+        <v>0.2465505342528967</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6634786084112599</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5925577135736991</v>
+        <v>0.5851078810725829</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.80787024100261</v>
+        <v>-1.762790333368558</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2031280687535746</v>
+        <v>0.2011526747563423</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6036906132047203</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4682086289718235</v>
+        <v>0.4581081482704369</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.758491687148286</v>
+        <v>-1.71436170005394</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1561845224799029</v>
+        <v>0.1486496929462365</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.545726826366132</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3567334467630662</v>
+        <v>0.3558645882081082</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.701383125389255</v>
+        <v>-1.652525571864081</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1169395037285129</v>
+        <v>0.1142668192605443</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4910107105546287</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2288522632529918</v>
+        <v>0.2255546931938668</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.643957398777281</v>
+        <v>-1.600230360577987</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08085983743005851</v>
+        <v>0.07738912526759049</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.44175607257092</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1215718420025008</v>
+        <v>0.1186662027045797</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.605672531689884</v>
+        <v>-1.557126633950729</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04784636037989788</v>
+        <v>0.04653205441361181</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3983192431634283</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03682193045430786</v>
+        <v>0.02822463801376351</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.577929657667399</v>
+        <v>-1.537290057974537</v>
       </c>
       <c r="G53" t="n">
-        <v>0.008091359433206411</v>
+        <v>0.007134355807455593</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3617160079166775</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.05219514693173123</v>
+        <v>-0.06323846508677686</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.561334774071526</v>
+        <v>-1.519695672236637</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01153193695204926</v>
+        <v>-0.01352149712137333</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.331142838091667</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1247810387105125</v>
+        <v>-0.135363169263017</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.550357564719575</v>
+        <v>-1.506950052401905</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04109831212656138</v>
+        <v>-0.04324999626537943</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3066794744991496</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1868131322809725</v>
+        <v>-0.2035543996551267</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.55486555548298</v>
+        <v>-1.512460693345579</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07459343902784002</v>
+        <v>-0.07448483170847027</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2872329478938778</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2456184866527663</v>
+        <v>-0.2592526402814728</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.553181355023188</v>
+        <v>-1.509086783359071</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.09901277167569889</v>
+        <v>-0.1070937858444566</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2726193109817557</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3251945973492438</v>
+        <v>-0.3431840618865894</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.552181852881162</v>
+        <v>-1.508271441454237</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1217778102270707</v>
+        <v>-0.1274962216947561</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2610988300822296</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3969903315291321</v>
+        <v>-0.4171598125494791</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.566758056953967</v>
+        <v>-1.52772238274571</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1463010281369355</v>
+        <v>-0.1511521550687842</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2518348529014897</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4739850508666765</v>
+        <v>-0.4861994392479699</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.579694920111938</v>
+        <v>-1.542245857177952</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1741627406030789</v>
+        <v>-0.1832810333727738</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2426972814460206</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5432151338788447</v>
+        <v>-0.5579810072557665</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.605914143625004</v>
+        <v>-1.570963836046083</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1977620092887401</v>
+        <v>-0.2055360897288442</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.232761616816106</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5966074364924853</v>
+        <v>-0.6127726128682434</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.640517379987678</v>
+        <v>-1.60008791184751</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2129402756754427</v>
+        <v>-0.2183863818351431</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2217616403206787</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6469839184697138</v>
+        <v>-0.664996993293879</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.683028488415767</v>
+        <v>-1.644801860035859</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.244554449726767</v>
+        <v>-0.2517067926139573</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.2099835417338524</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6999842903221506</v>
+        <v>-0.7207031040158316</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.721673805881942</v>
+        <v>-1.686174165629687</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2695026527993829</v>
+        <v>-0.2732850207478684</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1983676458987742</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.7697463917973184</v>
+        <v>-0.7960970459070132</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.766500296437464</v>
+        <v>-1.730818069967138</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2900294361602652</v>
+        <v>-0.2995475297867704</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1862053686008398</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.832619011578553</v>
+        <v>-0.8699090985812876</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.805569025047268</v>
+        <v>-1.769856105204077</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3140521159895562</v>
+        <v>-0.3199546876944339</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1735756895897148</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.8862426950030249</v>
+        <v>-0.9227379023495026</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.839404140078748</v>
+        <v>-1.800267728646728</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3362284713895616</v>
+        <v>-0.3434736814049087</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1586932143115541</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9129774097783171</v>
+        <v>-0.9628580757323358</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.875115485902818</v>
+        <v>-1.833822668274616</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3576917961276178</v>
+        <v>-0.3679449566837705</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1416542275834556</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.929953206001545</v>
+        <v>-0.9851823889297435</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.923520508930618</v>
+        <v>-1.872595481289616</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3776220262415271</v>
+        <v>-0.3866285636536096</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1228434681380662</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9276921275337966</v>
+        <v>-0.9827395112534848</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.951479023572721</v>
+        <v>-1.904090816897282</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3951440070998464</v>
+        <v>-0.4096155389010849</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1031376950538314</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9423871700502597</v>
+        <v>-0.9883705646599381</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.978880335445884</v>
+        <v>-1.929944080964646</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4040812876705917</v>
+        <v>-0.4190612276480103</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.08335097562753042</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9361296570335289</v>
+        <v>-0.9901358271044768</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.020243196924984</v>
+        <v>-1.973182386226775</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4098500677501587</v>
+        <v>-0.4241327172568412</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.06430143152699011</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8956757915969799</v>
+        <v>-0.9530590196926785</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.049638004015275</v>
+        <v>-1.99487315672786</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4226751755505167</v>
+        <v>-0.4365737643916018</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.04495939816884602</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8469764269934973</v>
+        <v>-0.9002475301347977</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.083676167513402</v>
+        <v>-2.032864469249134</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4188802154490607</v>
+        <v>-0.4366760756344863</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.02571744706632006</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7863507195079193</v>
+        <v>-0.8412737557170249</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.111910922511294</v>
+        <v>-2.058389550329706</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4265897611051915</v>
+        <v>-0.4434868563723544</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.008232781347219038</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.6993184802338404</v>
+        <v>-0.7516294317111475</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.135430703231329</v>
+        <v>-2.089802249933504</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4209390324597221</v>
+        <v>-0.4354672289493274</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.009521054231290309</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5983341354685522</v>
+        <v>-0.6566987644863816</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.123877402880982</v>
+        <v>-2.083811533157834</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4098878442090699</v>
+        <v>-0.4213167970488342</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.02611889422041151</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4886029664461961</v>
+        <v>-0.545210990124654</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.122012977231801</v>
+        <v>-2.088237674926931</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4019390476465015</v>
+        <v>-0.4133113357978989</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.04229862395223109</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3319896378958989</v>
+        <v>-0.3878075039754639</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.101423233106067</v>
+        <v>-2.071291785067008</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3779006276259974</v>
+        <v>-0.3882088788513955</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.05767852690424655</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1882344715475071</v>
+        <v>-0.2477607266768565</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.068235826943003</v>
+        <v>-2.038195672012979</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3572306085250767</v>
+        <v>-0.3686941897855096</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.07172025964573651</v>
       </c>
       <c r="E81" t="n">
-        <v>0.008835870477581637</v>
+        <v>-0.04727004110118138</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.038759170858405</v>
+        <v>-2.004451063080974</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3282245841577476</v>
+        <v>-0.3421609494577439</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.08453496097631519</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1766782514392379</v>
+        <v>0.1245546082373656</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.996550274101605</v>
+        <v>-1.961209609780602</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3009216484796659</v>
+        <v>-0.321829344467903</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.09522155852495806</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3878234724469973</v>
+        <v>0.3310438806843176</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.934782615743524</v>
+        <v>-1.903197561045944</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2664427596275744</v>
+        <v>-0.2828707971965896</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1014857376179813</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5869951299990225</v>
+        <v>0.5416791194967757</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.848331189525205</v>
+        <v>-1.821853039866685</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2313720395858737</v>
+        <v>-0.2523190860521433</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.105234789071353</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7644059731990656</v>
+        <v>0.7245219026844275</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.731555497925467</v>
+        <v>-1.706017037682364</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2013334586749714</v>
+        <v>-0.2267900699237674</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1064263391679847</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9831017639317045</v>
+        <v>0.938908029062945</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.634242552760613</v>
+        <v>-1.615263030195969</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1677958332574176</v>
+        <v>-0.1929785651791074</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1066722888502607</v>
       </c>
       <c r="E87" t="n">
-        <v>1.187434630182475</v>
+        <v>1.149856497680542</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.504431621807824</v>
+        <v>-1.494301234743133</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1350404953431503</v>
+        <v>-0.1549329489981484</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1060571043822733</v>
       </c>
       <c r="E88" t="n">
-        <v>1.348941584180896</v>
+        <v>1.319148550252916</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.354449635815567</v>
+        <v>-1.339147808927842</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1049216394570617</v>
+        <v>-0.1280565725019392</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1043784641527335</v>
       </c>
       <c r="E89" t="n">
-        <v>1.4779481913627</v>
+        <v>1.452189368442614</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.17402139795999</v>
+        <v>-1.157673635366161</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.07745815382860727</v>
+        <v>-0.1004152227127778</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1037940195624137</v>
       </c>
       <c r="E90" t="n">
-        <v>1.590972208386817</v>
+        <v>1.567363495586428</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9865927100624289</v>
+        <v>-0.9721487235958132</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.05610815846728474</v>
+        <v>-0.07565904997296058</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1059744004871766</v>
       </c>
       <c r="E91" t="n">
-        <v>1.673564139719707</v>
+        <v>1.643723885218088</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7879011283424006</v>
+        <v>-0.7770136380803636</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.05834169160041042</v>
+        <v>-0.07893930582175122</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1125378909399694</v>
       </c>
       <c r="E92" t="n">
-        <v>1.723458971845817</v>
+        <v>1.704813141334889</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5752731813223758</v>
+        <v>-0.5726980860399279</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.05360389404529535</v>
+        <v>-0.07275813273240342</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1249970751176702</v>
       </c>
       <c r="E93" t="n">
-        <v>1.725557139334511</v>
+        <v>1.713378953393008</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4001525359438252</v>
+        <v>-0.4002469770911032</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.06210044926207646</v>
+        <v>-0.07748648617279068</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1438857018549858</v>
       </c>
       <c r="E94" t="n">
-        <v>1.710355262660989</v>
+        <v>1.700013957034044</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2137241371978504</v>
+        <v>-0.21522417742045</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.08753659826229558</v>
+        <v>-0.09695080662679499</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1691049027548583</v>
       </c>
       <c r="E95" t="n">
-        <v>1.675933038497264</v>
+        <v>1.667501018064456</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07668688445916994</v>
+        <v>-0.07443446309658865</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0912560054459291</v>
+        <v>-0.1023874686717676</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1986083557678208</v>
       </c>
       <c r="E96" t="n">
-        <v>1.60533985492605</v>
+        <v>1.606093810085153</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04046578472011896</v>
+        <v>0.03334964427271855</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1096389747635998</v>
+        <v>-0.115272389198735</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2315058759781564</v>
       </c>
       <c r="E97" t="n">
-        <v>1.502380116163529</v>
+        <v>1.512444394425126</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1043064262609536</v>
+        <v>0.09631670520123126</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1346170841995205</v>
+        <v>-0.1372252338835157</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2634591721955451</v>
       </c>
       <c r="E98" t="n">
-        <v>1.377669007163754</v>
+        <v>1.380234658331474</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1505873104845577</v>
+        <v>0.1446453883016476</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1427059684638847</v>
+        <v>-0.1457139190046903</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2894206688706806</v>
       </c>
       <c r="E99" t="n">
-        <v>1.24973902906092</v>
+        <v>1.252507728695287</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1669397951357505</v>
+        <v>0.1562333170726632</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1589655859869208</v>
+        <v>-0.1606718227144107</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3007753294744119</v>
       </c>
       <c r="E100" t="n">
-        <v>1.123368903907294</v>
+        <v>1.124239336481373</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1890531897709039</v>
+        <v>0.174166116921642</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1661667234668714</v>
+        <v>-0.1678367577545715</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2982448080864556</v>
       </c>
       <c r="E101" t="n">
-        <v>1.007472301986803</v>
+        <v>1.012784616521193</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1988388666480303</v>
+        <v>0.185802840285418</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1895110010548819</v>
+        <v>-0.1915902803141201</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2784242022486796</v>
       </c>
       <c r="E102" t="n">
-        <v>0.893538501910574</v>
+        <v>0.8967463528797848</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2022592101986166</v>
+        <v>0.1822455570712784</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1971717521182524</v>
+        <v>-0.1940488981815918</v>
       </c>
     </row>
   </sheetData>
